--- a/startlist大学別.xlsx
+++ b/startlist大学別.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashiayano/Desktop/東医体/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{952FA26D-A827-7C43-B38A-E66B674745B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D05AD7-71CE-1C41-B0EE-60C77700DB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{9E952FAF-5400-4261-9FB3-E20B511E3042}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{9E952FAF-5400-4261-9FB3-E20B511E3042}"/>
   </bookViews>
   <sheets>
     <sheet name="男子SG" sheetId="26" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="OB" sheetId="25" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">女子スプリント!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">男子SG!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">男子15km!$A$1:$G$146</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">男子SG!$A$1:$F$224</definedName>
   </definedNames>
@@ -5331,8 +5333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF158F48-93F2-4331-B21E-C7F13DD192D1}">
   <dimension ref="A1:O224"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A210" zoomScaleNormal="10" workbookViewId="0">
-      <selection sqref="A1:F224"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -9830,6 +9832,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{AF158F48-93F2-4331-B21E-C7F13DD192D1}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12613,10 +12616,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2939EA69-D816-4BF4-88C5-CC9A1EFD4BF2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="A1:G18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -12653,7 +12657,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" thickTop="1">
+    <row r="2" spans="1:7" ht="21" hidden="1" thickTop="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -12676,7 +12680,7 @@
         <v>0.45850694444444445</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20">
+    <row r="3" spans="1:7" ht="21" hidden="1" thickTop="1">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -12699,7 +12703,7 @@
         <v>0.45868055555555554</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20">
+    <row r="4" spans="1:7" ht="21" hidden="1" thickTop="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -12722,7 +12726,7 @@
         <v>0.45885416666666701</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20">
+    <row r="5" spans="1:7" ht="21" thickTop="1">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -12745,7 +12749,7 @@
         <v>0.45902777777777798</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20">
+    <row r="6" spans="1:7" ht="20" hidden="1">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -12768,7 +12772,7 @@
         <v>0.45920138888888901</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20">
+    <row r="7" spans="1:7" ht="20" hidden="1">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -12791,7 +12795,7 @@
         <v>0.45937499999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20">
+    <row r="8" spans="1:7" ht="20" hidden="1">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -12837,7 +12841,7 @@
         <v>0.45972222222222198</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20">
+    <row r="10" spans="1:7" ht="20" hidden="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>0.459895833333333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20">
+    <row r="11" spans="1:7" ht="20" hidden="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -12883,7 +12887,7 @@
         <v>0.46006944444444398</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20">
+    <row r="12" spans="1:7" ht="20" hidden="1">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -12929,7 +12933,7 @@
         <v>0.46041666666666597</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20">
+    <row r="14" spans="1:7" ht="20" hidden="1">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -12952,7 +12956,7 @@
         <v>0.460590277777777</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20">
+    <row r="15" spans="1:7" ht="20" hidden="1">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -12998,7 +13002,7 @@
         <v>0.4609375</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20">
+    <row r="17" spans="1:7" ht="20" hidden="1">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -13045,6 +13049,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G18" xr:uid="{2939EA69-D816-4BF4-88C5-CC9A1EFD4BF2}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="北海道大学"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
